--- a/data/filtered_tuition_data.xlsx
+++ b/data/filtered_tuition_data.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Faculty (TH)</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Program (TH)</t>
+          <t>Program</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Cleaned Fee</t>
+          <t>Cleaned Tuition Fee</t>
         </is>
       </c>
     </row>

--- a/data/filtered_tuition_data.xlsx
+++ b/data/filtered_tuition_data.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Cleaned Tuition Fee</t>
+          <t>Confirm Tution Fee</t>
         </is>
       </c>
     </row>
